--- a/xlsx/保守百科_intext.xlsx
+++ b/xlsx/保守百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>保守百科</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡百科全書</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_保守百科</t>
+    <t>网络百科全书</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_保守百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國保守主義</t>
+    <t>美国保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8F%B3%E7%BF%BC</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>百科全書</t>
+    <t>百科全书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Andrew_Schlafly</t>
@@ -101,49 +101,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E8%AB%96</t>
   </si>
   <si>
-    <t>社論</t>
+    <t>社论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>愛因斯坦</t>
+    <t>爱因斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>相對論</t>
+    <t>相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%9B%B8%E5%B0%8D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德相對主義</t>
+    <t>道德相对主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E8%85%BA%E7%99%8C</t>
@@ -155,25 +155,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E8%85%A6</t>
   </si>
   <si>
-    <t>洗腦</t>
+    <t>洗脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美菲戰爭</t>
+    <t>美菲战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -203,43 +203,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>創世紀</t>
+    <t>创世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>地質學</t>
+    <t>地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%95%8C</t>
   </si>
   <si>
-    <t>科學界</t>
+    <t>科学界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%90%9E</t>
   </si>
   <si>
-    <t>惡搞</t>
+    <t>恶搞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E4%B8%BB%E7%BE%A9%E8%80%85</t>
   </si>
   <si>
-    <t>環保主義者</t>
+    <t>环保主义者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>英國皇家學會</t>
+    <t>英国皇家学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>雜誌</t>
+    <t>杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>物理學家</t>
+    <t>物理学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>廣義相對論</t>
+    <t>广义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%A4%A7%E5%AD%A6</t>
@@ -293,55 +293,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>科學美國人</t>
+    <t>科学美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>共和黨</t>
+    <t>共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8D%9A%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰·博納</t>
+    <t>约翰·博纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A5%87%C2%B7%E9%BA%A5%E5%BA%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>米奇·麥康諾</t>
+    <t>米奇·麦康诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%87%B1%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·麥凱恩</t>
+    <t>约翰·麦凯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8F%A1%E5%83%8F%E7%AB%99%E9%BB%9E</t>
   </si>
   <si>
-    <t>鏡像站點</t>
+    <t>镜像站点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>破壞</t>
+    <t>破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B9%E8%AC%97</t>
   </si>
   <si>
-    <t>誹謗</t>
+    <t>诽谤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E5%B8%8C</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E6%AA%A2%E5%AF%9F%E9%95%B7</t>
   </si>
   <si>
-    <t>美國總檢察長</t>
+    <t>美国总检察长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%9F%8B%E6%89%98%C2%B7%E5%B2%A1%E8%96%A9%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾韋托·岡薩雷斯</t>
+    <t>阿尔韦托·冈萨雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主黨</t>
+    <t>民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E7%99%8C</t>
@@ -401,13 +401,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
   </si>
   <si>
-    <t>堕胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>內科學</t>
+    <t>内科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%A7%91</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6%E5%AE%B6</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%B8%E6%A1%BF%E8%8F%8C</t>
   </si>
   <si>
-    <t>大腸桿菌</t>
+    <t>大肠杆菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96</t>
   </si>
   <si>
-    <t>進化</t>
+    <t>进化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A0%E6%AA%AC%E9%85%B8%E7%9B%90</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>進化論</t>
+    <t>进化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E7%94%B5%E8%AE%AF%E6%8A%A5</t>
@@ -2724,7 +2721,7 @@
         <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2750,10 +2747,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2779,10 +2776,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2808,10 +2805,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2837,10 +2834,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2866,10 +2863,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2895,10 +2892,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2924,10 +2921,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2953,10 +2950,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -2982,10 +2979,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3011,10 +3008,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3040,10 +3037,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3069,10 +3066,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3098,10 +3095,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3156,10 +3153,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3185,10 +3182,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3214,10 +3211,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
